--- a/GestionDeProjet/Tableaux_analyses.xlsx
+++ b/GestionDeProjet/Tableaux_analyses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96DE1B7B-BD5E-4DAC-8F09-902CC4DC043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46BF167-0C24-467D-B62A-E39454C2229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B87AB62-E199-487F-9C2E-63B2C107F5E8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>Odométrie</t>
   </si>
@@ -179,9 +179,6 @@
     <t xml:space="preserve">Solution qui sembe simple dans un primier temps mais nécéssite d'un point de vue du FPGA d'tre capable d'estimer la distance et la déformation en plus de la reconnaissance de l'amer. La précision n'est pas folle non plus. Cependant ça semble être un bon compromis pour la partie FPGA sachant qu'Isabelle aimerait faire de l'imagerie pendant ce stage. La reconnaissance du QRCode est un peu plus complexe à traiter que l'amer </t>
   </si>
   <si>
-    <t>Solution idéale mais sacrément complexe à mettr en place pour le FPGA surtout dans un but de temps réèl. Laisse peu de places pour faire d'autres choses que de l'imagerie sur FPGA</t>
-  </si>
-  <si>
     <t>Solution qui sembe simple dans un primier temps mais nécéssite d'un point de vue du FPGA d'être capable d'estimer la distance et la déformation en plus de la reconnaissance de l'amer. La précision n'est pas folle non plus. Cependant ça semble être un bon compromis pour la partie FPGA sachant qu'Isabelle aimerait faire de l'imagerie pendant ce stage</t>
   </si>
   <si>
@@ -225,6 +222,45 @@
   </si>
   <si>
     <t>Balise de base : 24€ Balise avec C02 : 84-104€</t>
+  </si>
+  <si>
+    <t>Déjà présents</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Solution idéale mais sacrément complexe à mettre en place pour le FPGA surtout dans un but de temps réel. Laisse peu de place pour faire d'autres choses que de l'imagerie sur FPGA</t>
+  </si>
+  <si>
+    <t>3-5 nvx ultrasons : HCSR04</t>
+  </si>
+  <si>
+    <t>Peu de documentation, emplacement fixe sur le robot, problème de connecteur rencontré l'année dernière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souvent utilisé dans ce genre d'applications, les différents capteurs peuvent parfois interférer entre eux. Facile à mettre en œuvre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Très interessant comme solution car permet un retour visuel, mais va être très long à mettre en œuvre sans garanti de succès, car nécessite probablement du machine learning </t>
+  </si>
+  <si>
+    <t>Infrared proximity sensor</t>
+  </si>
+  <si>
+    <t>10-20 €</t>
+  </si>
+  <si>
+    <t>Solution souvent utilisé en robotique, car solution très précise, et nous avons déjà le Lidar mais serait encore géré par le soft, et notre but serait de le délester.</t>
+  </si>
+  <si>
+    <t>10-30 €</t>
+  </si>
+  <si>
+    <t>Plus directif que les ultrasons, mais pas de problèmes d'iterférences entre les différents lasers. Facile à mettre en œuvre, mais plus couteux, il faudra surement en mettre plus que les ultrasons</t>
   </si>
 </sst>
 </file>
@@ -293,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,29 +374,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,24 +424,57 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,13 +485,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FF99CCFF"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
@@ -733,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4BDB1B-DE9D-4D2F-BB48-3B412F7001DC}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,557 +822,655 @@
     <col min="9" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="14" max="18" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" s="19" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="24"/>
+      <c r="T3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="19"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="U3" s="14">
         <v>9</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="S3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="U5" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7">
+        <v>320</v>
+      </c>
+      <c r="G6" s="7">
+        <v>320</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60</v>
+      </c>
+      <c r="J6" s="7">
+        <v>60</v>
+      </c>
+      <c r="K6" s="7">
+        <v>60</v>
+      </c>
+      <c r="L6" s="7">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="T6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="P7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="Q7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="S5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11">
-        <v>320</v>
-      </c>
-      <c r="G6" s="11">
-        <v>320</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>60</v>
-      </c>
-      <c r="J6" s="11">
-        <v>60</v>
-      </c>
-      <c r="K6" s="11">
-        <v>60</v>
-      </c>
-      <c r="L6" s="11">
-        <v>60</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="S6" s="23" t="s">
+      <c r="J8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-    </row>
-    <row r="9" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="1:20" ht="375" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" ht="375" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S6:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="21">
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L14"/>
     <mergeCell ref="B15:L16"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="B1:L1"/>
@@ -1311,6 +1479,13 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T6:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GestionDeProjet/Tableaux_analyses.xlsx
+++ b/GestionDeProjet/Tableaux_analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46BF167-0C24-467D-B62A-E39454C2229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A778DA-9DF6-411C-86EB-886A5902520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B87AB62-E199-487F-9C2E-63B2C107F5E8}"/>
   </bookViews>
@@ -432,50 +432,50 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4BDB1B-DE9D-4D2F-BB48-3B412F7001DC}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,63 +828,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="20" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="T1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="20"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="13" t="s">
@@ -895,36 +895,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="23"/>
       <c r="T3" s="15" t="s">
         <v>56</v>
       </c>
@@ -933,9 +933,9 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1020,19 +1020,19 @@
         <v>27</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="27" t="s">
+      <c r="Q5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="T5" s="13" t="s">
@@ -1080,23 +1080,23 @@
         <v>60</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="28">
+      <c r="N6" s="17">
         <v>0</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="17">
         <v>0</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="T6" s="17" t="s">
+      <c r="R6" s="18"/>
+      <c r="T6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="17"/>
+      <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1136,23 +1136,23 @@
         <v>34</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="27" t="s">
+      <c r="N7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="27" t="s">
+      <c r="Q7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1192,23 +1192,23 @@
         <v>29</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="27" t="s">
+      <c r="P8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1248,25 +1248,25 @@
         <v>33</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="17"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21" ht="375" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1306,19 +1306,19 @@
         <v>66</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1359,53 +1359,53 @@
       <c r="L11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1413,17 +1413,17 @@
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -1431,19 +1431,19 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1451,20 +1451,25 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T6:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L14"/>
     <mergeCell ref="B15:L16"/>
@@ -1481,11 +1486,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T6:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
